--- a/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008638</t>
-  </si>
-  <si>
-    <t>广发科技创新混合</t>
-  </si>
-  <si>
-    <t>45.29</t>
-  </si>
-  <si>
-    <t>89.23</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>1.4629</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.3</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,1145 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.380000000000001</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.3</v>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2014,13 +2079,3475 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010170</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010171</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
-        <v>21.86</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>8.380000000000001</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -549,6 +566,3708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2894</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4058,7 +7777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5216,7 +8935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5462,7 +9181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688556-高测股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>19.99</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>21.86</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>8.380000000000001</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>2.3</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -566,6 +583,3136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015429</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015430</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>016981</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>017290</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4267,7 +7414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7777,7 +10924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8935,7 +12082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9181,7 +12328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
